--- a/donors.xlsx
+++ b/donors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12280,12 +12280,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Hhh Fff Rrr</t>
+          <t>Аллах Ахмедов Магомедович</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Внешний донор</t>
+          <t>А22-502</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -12294,9 +12294,30 @@
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
       <c r="H409" t="inlineStr"/>
-      <c r="I409" t="inlineStr">
-        <is>
-          <t>79631348777</t>
+      <c r="I409" t="n">
+        <v>79191557535</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Аллах Ахмедов Магомедович</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Внешний донор</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>79191557535</t>
         </is>
       </c>
     </row>

--- a/donors.xlsx
+++ b/donors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:J411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Телефон</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Телеграм</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +523,7 @@
       <c r="I2" t="n">
         <v>79483957162</v>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,6 +555,7 @@
       <c r="I3" t="n">
         <v>79720136845</v>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +587,7 @@
       <c r="I4" t="n">
         <v>79159208374</v>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -605,6 +613,7 @@
       <c r="I5" t="n">
         <v>79642871930</v>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -640,6 +649,7 @@
       <c r="I6" t="n">
         <v>79307592618</v>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,6 +689,7 @@
       <c r="I7" t="n">
         <v>79925463781</v>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,6 +729,7 @@
       <c r="I8" t="n">
         <v>79836019254</v>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -743,6 +755,7 @@
       <c r="I9" t="n">
         <v>79571328406</v>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -778,6 +791,7 @@
       <c r="I10" t="n">
         <v>79498205137</v>
       </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -813,6 +827,7 @@
       <c r="I11" t="n">
         <v>79260734895</v>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -842,6 +857,7 @@
       <c r="I12" t="n">
         <v>79174683529</v>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -881,6 +897,7 @@
       <c r="I13" t="n">
         <v>79359042768</v>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -916,6 +933,7 @@
       <c r="I14" t="n">
         <v>79812597043</v>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -955,6 +973,7 @@
       <c r="I15" t="n">
         <v>79627310984</v>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -984,6 +1003,7 @@
       <c r="I16" t="n">
         <v>79940158326</v>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1023,6 +1043,7 @@
       <c r="I17" t="n">
         <v>79753864012</v>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1048,6 +1069,7 @@
       <c r="I18" t="n">
         <v>79481026793</v>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1079,6 +1101,7 @@
       <c r="I19" t="n">
         <v>79295378460</v>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1104,6 +1127,7 @@
       <c r="I20" t="n">
         <v>79618490237</v>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1139,6 +1163,7 @@
       <c r="I21" t="n">
         <v>79034726859</v>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1160,6 +1185,7 @@
       <c r="I22" t="n">
         <v>79567831402</v>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1193,6 +1219,7 @@
       <c r="I23" t="n">
         <v>79123456789</v>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1228,6 +1255,7 @@
       <c r="I24" t="n">
         <v>79987654321</v>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1253,6 +1281,7 @@
       <c r="I25" t="n">
         <v>79456789012</v>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1282,6 +1311,7 @@
       <c r="I26" t="n">
         <v>79345678901</v>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1313,6 +1343,7 @@
       <c r="I27" t="n">
         <v>79234567890</v>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1342,6 +1373,7 @@
       <c r="I28" t="n">
         <v>79890123456</v>
       </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1363,6 +1395,7 @@
       <c r="I29" t="n">
         <v>79789012345</v>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1388,6 +1421,7 @@
       <c r="I30" t="n">
         <v>79678901234</v>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1413,6 +1447,7 @@
       <c r="I31" t="n">
         <v>79567890123</v>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1452,6 +1487,7 @@
       <c r="I32" t="n">
         <v>79901234567</v>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1477,6 +1513,7 @@
       <c r="I33" t="n">
         <v>79012345678</v>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1512,6 +1549,7 @@
       <c r="I34" t="n">
         <v>79135792468</v>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1545,6 +1583,7 @@
       <c r="I35" t="n">
         <v>79246813579</v>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1576,6 +1615,7 @@
       <c r="I36" t="n">
         <v>79357924680</v>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1611,6 +1651,7 @@
       <c r="I37" t="n">
         <v>79468135792</v>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1650,6 +1691,7 @@
       <c r="I38" t="n">
         <v>79579246803</v>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1685,6 +1727,7 @@
       <c r="I39" t="n">
         <v>79681357924</v>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1710,6 +1753,7 @@
       <c r="I40" t="n">
         <v>79792468135</v>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1745,6 +1789,7 @@
       <c r="I41" t="n">
         <v>79803579246</v>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1780,6 +1825,7 @@
       <c r="I42" t="n">
         <v>79914680357</v>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1811,6 +1857,7 @@
       <c r="I43" t="n">
         <v>79025791368</v>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1846,6 +1893,7 @@
       <c r="I44" t="n">
         <v>79136802479</v>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1871,6 +1919,7 @@
       <c r="I45" t="n">
         <v>79247913580</v>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1906,6 +1955,7 @@
       <c r="I46" t="n">
         <v>79358024691</v>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1931,6 +1981,7 @@
       <c r="I47" t="n">
         <v>79469135802</v>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1956,6 +2007,7 @@
       <c r="I48" t="n">
         <v>79570246913</v>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1991,6 +2043,7 @@
       <c r="I49" t="n">
         <v>79681357024</v>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2022,6 +2075,7 @@
       <c r="I50" t="n">
         <v>79792468135</v>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2043,6 +2097,7 @@
       <c r="I51" t="n">
         <v>79803579246</v>
       </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2064,6 +2119,7 @@
       <c r="I52" t="n">
         <v>79914680357</v>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2085,6 +2141,7 @@
       <c r="I53" t="n">
         <v>79025791368</v>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2110,6 +2167,7 @@
       <c r="I54" t="n">
         <v>79136802479</v>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2135,6 +2193,7 @@
       <c r="I55" t="n">
         <v>79247913580</v>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2160,6 +2219,7 @@
       <c r="I56" t="n">
         <v>79358024691</v>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2185,6 +2245,7 @@
       <c r="I57" t="n">
         <v>79469135802</v>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2220,6 +2281,7 @@
       <c r="I58" t="n">
         <v>79570246913</v>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2259,6 +2321,7 @@
       <c r="I59" t="n">
         <v>79681357024</v>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2288,6 +2351,7 @@
       <c r="I60" t="n">
         <v>79792468135</v>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2327,6 +2391,7 @@
       <c r="I61" t="n">
         <v>79803579246</v>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2356,6 +2421,7 @@
       <c r="I62" t="n">
         <v>79914680357</v>
       </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2385,6 +2451,7 @@
       <c r="I63" t="n">
         <v>79025791368</v>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2414,6 +2481,7 @@
       <c r="I64" t="n">
         <v>79136802479</v>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2453,6 +2521,7 @@
       <c r="I65" t="n">
         <v>79247913580</v>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2492,6 +2561,7 @@
       <c r="I66" t="n">
         <v>79358024691</v>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2531,6 +2601,7 @@
       <c r="I67" t="n">
         <v>79469135802</v>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2570,6 +2641,7 @@
       <c r="I68" t="n">
         <v>79570246913</v>
       </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2605,6 +2677,7 @@
       <c r="I69" t="n">
         <v>79681357024</v>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2644,6 +2717,7 @@
       <c r="I70" t="n">
         <v>79792468135</v>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2679,6 +2753,7 @@
       <c r="I71" t="n">
         <v>79803579246</v>
       </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2708,6 +2783,7 @@
       <c r="I72" t="n">
         <v>79914680357</v>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2737,6 +2813,7 @@
       <c r="I73" t="n">
         <v>79025791368</v>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2772,6 +2849,7 @@
       <c r="I74" t="n">
         <v>79136802479</v>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2801,6 +2879,7 @@
       <c r="I75" t="n">
         <v>79247913580</v>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2832,6 +2911,7 @@
       <c r="I76" t="n">
         <v>79358024691</v>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2871,6 +2951,7 @@
       <c r="I77" t="n">
         <v>79469135802</v>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2906,6 +2987,7 @@
       <c r="I78" t="n">
         <v>79570246913</v>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2935,6 +3017,7 @@
       <c r="I79" t="n">
         <v>79681357024</v>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2970,6 +3053,7 @@
       <c r="I80" t="n">
         <v>79792468135</v>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3005,6 +3089,7 @@
       <c r="I81" t="n">
         <v>79803579246</v>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3044,6 +3129,7 @@
       <c r="I82" t="n">
         <v>79914680357</v>
       </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3073,6 +3159,7 @@
       <c r="I83" t="n">
         <v>79025791368</v>
       </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3112,6 +3199,7 @@
       <c r="I84" t="n">
         <v>79136802479</v>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3151,6 +3239,7 @@
       <c r="I85" t="n">
         <v>79247913580</v>
       </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3186,6 +3275,7 @@
       <c r="I86" t="n">
         <v>79358024691</v>
       </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3221,6 +3311,7 @@
       <c r="I87" t="n">
         <v>79469135802</v>
       </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3260,6 +3351,7 @@
       <c r="I88" t="n">
         <v>79570246913</v>
       </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3295,6 +3387,7 @@
       <c r="I89" t="n">
         <v>79681357024</v>
       </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3330,6 +3423,7 @@
       <c r="I90" t="n">
         <v>79792468135</v>
       </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3365,6 +3459,7 @@
       <c r="I91" t="n">
         <v>79803579246</v>
       </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3404,6 +3499,7 @@
       <c r="I92" t="n">
         <v>79914680357</v>
       </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3439,6 +3535,7 @@
       <c r="I93" t="n">
         <v>79025791368</v>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3478,6 +3575,7 @@
       <c r="I94" t="n">
         <v>79136802479</v>
       </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3517,6 +3615,7 @@
       <c r="I95" t="n">
         <v>79247913580</v>
       </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3544,6 +3643,7 @@
       <c r="I96" t="n">
         <v>79358024691</v>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3575,6 +3675,7 @@
       <c r="I97" t="n">
         <v>79469135802</v>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3614,6 +3715,7 @@
       <c r="I98" t="n">
         <v>79570246913</v>
       </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3649,6 +3751,7 @@
       <c r="I99" t="n">
         <v>79681357024</v>
       </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3678,6 +3781,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3711,6 +3815,7 @@
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3736,6 +3841,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3761,6 +3867,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3790,6 +3897,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3823,6 +3931,7 @@
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3856,6 +3965,7 @@
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3885,6 +3995,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3914,6 +4025,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3943,6 +4055,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3972,6 +4085,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4001,6 +4115,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4034,6 +4149,7 @@
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4063,6 +4179,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4096,6 +4213,7 @@
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4125,6 +4243,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4154,6 +4273,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4183,6 +4303,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4216,6 +4337,7 @@
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4245,6 +4367,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4274,6 +4397,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4303,6 +4427,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4332,6 +4457,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4361,6 +4487,7 @@
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4394,6 +4521,7 @@
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4427,6 +4555,7 @@
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4454,6 +4583,7 @@
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4487,6 +4617,7 @@
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4514,6 +4645,7 @@
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4541,6 +4673,7 @@
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4564,6 +4697,7 @@
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4591,6 +4725,7 @@
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4614,6 +4749,7 @@
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4647,6 +4783,7 @@
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4674,6 +4811,7 @@
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4705,6 +4843,7 @@
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4738,6 +4877,7 @@
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4771,6 +4911,7 @@
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4800,6 +4941,7 @@
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4829,6 +4971,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4862,6 +5005,7 @@
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4895,6 +5039,7 @@
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4928,6 +5073,7 @@
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4955,6 +5101,7 @@
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4992,6 +5139,7 @@
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5019,6 +5167,7 @@
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5048,6 +5197,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5075,6 +5225,7 @@
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5108,6 +5259,7 @@
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5131,6 +5283,7 @@
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5168,6 +5321,7 @@
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5195,6 +5349,7 @@
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5226,6 +5381,7 @@
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5253,6 +5409,7 @@
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5276,6 +5433,7 @@
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5309,6 +5467,7 @@
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5342,6 +5501,7 @@
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5369,6 +5529,7 @@
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5402,6 +5563,7 @@
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5425,6 +5587,7 @@
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5456,6 +5619,7 @@
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5483,6 +5647,7 @@
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5516,6 +5681,7 @@
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5539,6 +5705,7 @@
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5566,6 +5733,7 @@
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5593,6 +5761,7 @@
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5630,6 +5799,7 @@
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5657,6 +5827,7 @@
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5686,6 +5857,7 @@
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5719,6 +5891,7 @@
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5746,6 +5919,7 @@
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5773,6 +5947,7 @@
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5810,6 +5985,7 @@
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5837,6 +6013,7 @@
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5870,6 +6047,7 @@
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5903,6 +6081,7 @@
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5940,6 +6119,7 @@
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5973,6 +6153,7 @@
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6000,6 +6181,7 @@
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6027,6 +6209,7 @@
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6060,6 +6243,7 @@
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6087,6 +6271,7 @@
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6120,6 +6305,7 @@
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6157,6 +6343,7 @@
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6190,6 +6377,7 @@
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6223,6 +6411,7 @@
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6254,6 +6443,7 @@
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6287,6 +6477,7 @@
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6324,6 +6515,7 @@
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6351,6 +6543,7 @@
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6384,6 +6577,7 @@
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6411,6 +6605,7 @@
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6438,6 +6633,7 @@
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6465,6 +6661,7 @@
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6492,6 +6689,7 @@
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6523,6 +6721,7 @@
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6552,6 +6751,7 @@
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6577,6 +6777,7 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6602,6 +6803,7 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6631,6 +6833,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6656,6 +6859,7 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6681,6 +6885,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6706,6 +6911,7 @@
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6735,6 +6941,7 @@
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6764,6 +6971,7 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6797,6 +7005,7 @@
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6822,6 +7031,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6847,6 +7057,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6876,6 +7087,7 @@
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6909,6 +7121,7 @@
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6942,6 +7155,7 @@
         </is>
       </c>
       <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6975,6 +7189,7 @@
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7004,6 +7219,7 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7029,6 +7245,7 @@
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7054,6 +7271,7 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7083,6 +7301,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7108,6 +7327,7 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7133,6 +7353,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7166,6 +7387,7 @@
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7199,6 +7421,7 @@
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7228,6 +7451,7 @@
         </is>
       </c>
       <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7257,6 +7481,7 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7290,6 +7515,7 @@
         </is>
       </c>
       <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7323,6 +7549,7 @@
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7348,6 +7575,7 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7381,6 +7609,7 @@
         </is>
       </c>
       <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7406,6 +7635,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7439,6 +7669,7 @@
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7464,6 +7695,7 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7493,6 +7725,7 @@
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7526,6 +7759,7 @@
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7559,6 +7793,7 @@
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7584,6 +7819,7 @@
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7613,6 +7849,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7638,6 +7875,7 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7667,6 +7905,7 @@
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7692,6 +7931,7 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7717,6 +7957,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7742,6 +7983,7 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7767,6 +8009,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7800,6 +8043,7 @@
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7833,6 +8077,7 @@
         </is>
       </c>
       <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7862,6 +8107,7 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7895,6 +8141,7 @@
         </is>
       </c>
       <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7924,6 +8171,7 @@
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7949,6 +8197,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7982,6 +8231,7 @@
         </is>
       </c>
       <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8011,6 +8261,7 @@
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8040,6 +8291,7 @@
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8065,6 +8317,7 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8094,6 +8347,7 @@
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8119,6 +8373,7 @@
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8148,6 +8403,7 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8177,6 +8433,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8206,6 +8463,7 @@
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8231,6 +8489,7 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8260,6 +8519,7 @@
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8285,6 +8545,7 @@
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8314,6 +8575,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8343,6 +8605,7 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8368,6 +8631,7 @@
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8393,6 +8657,7 @@
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8426,6 +8691,7 @@
         </is>
       </c>
       <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8455,6 +8721,7 @@
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8480,6 +8747,7 @@
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8509,6 +8777,7 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8538,6 +8807,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8571,6 +8841,7 @@
         </is>
       </c>
       <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8600,6 +8871,7 @@
         </is>
       </c>
       <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8629,6 +8901,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8658,6 +8931,7 @@
         </is>
       </c>
       <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8687,6 +8961,7 @@
       <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8716,6 +8991,7 @@
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8741,6 +9017,7 @@
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8770,6 +9047,7 @@
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8803,6 +9081,7 @@
         </is>
       </c>
       <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8828,6 +9107,7 @@
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8861,6 +9141,7 @@
         </is>
       </c>
       <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8886,6 +9167,7 @@
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8915,6 +9197,7 @@
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8944,6 +9227,7 @@
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8969,6 +9253,7 @@
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9002,6 +9287,7 @@
         </is>
       </c>
       <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9027,6 +9313,7 @@
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9052,6 +9339,7 @@
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9085,6 +9373,7 @@
         </is>
       </c>
       <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9114,6 +9403,7 @@
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9143,6 +9433,7 @@
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9172,6 +9463,7 @@
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9201,6 +9493,7 @@
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9228,6 +9521,7 @@
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9255,6 +9549,7 @@
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9282,6 +9577,7 @@
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9305,6 +9601,7 @@
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9328,6 +9625,7 @@
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9355,6 +9653,7 @@
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9382,6 +9681,7 @@
       </c>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9409,6 +9709,7 @@
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9436,6 +9737,7 @@
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9463,6 +9765,7 @@
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9486,6 +9789,7 @@
       </c>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9513,6 +9817,7 @@
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9536,6 +9841,7 @@
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9563,6 +9869,7 @@
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9586,6 +9893,7 @@
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9609,6 +9917,7 @@
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9636,6 +9945,7 @@
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9663,6 +9973,7 @@
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9690,6 +10001,7 @@
         </is>
       </c>
       <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9713,6 +10025,7 @@
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9740,6 +10053,7 @@
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9763,6 +10077,7 @@
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9786,6 +10101,7 @@
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9823,6 +10139,7 @@
         </is>
       </c>
       <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9850,6 +10167,7 @@
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9877,6 +10195,7 @@
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9900,6 +10219,7 @@
       </c>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9931,6 +10251,7 @@
         </is>
       </c>
       <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9958,6 +10279,7 @@
       </c>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9981,6 +10303,7 @@
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10004,6 +10327,7 @@
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10031,6 +10355,7 @@
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10058,6 +10383,7 @@
       </c>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10081,6 +10407,7 @@
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10108,6 +10435,7 @@
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10135,6 +10463,7 @@
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10158,6 +10487,7 @@
       </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10181,6 +10511,7 @@
       </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10204,6 +10535,7 @@
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10231,6 +10563,7 @@
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10258,6 +10591,7 @@
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10281,6 +10615,7 @@
       </c>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -10304,6 +10639,7 @@
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10331,6 +10667,7 @@
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10358,6 +10695,7 @@
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10381,6 +10719,7 @@
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -10404,6 +10743,7 @@
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -10431,6 +10771,7 @@
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -10454,6 +10795,7 @@
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -10477,6 +10819,7 @@
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -10504,6 +10847,7 @@
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -10531,6 +10875,7 @@
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10554,6 +10899,7 @@
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10581,6 +10927,7 @@
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10604,6 +10951,7 @@
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10633,6 +10981,7 @@
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10660,6 +11009,7 @@
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10687,6 +11037,7 @@
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10710,6 +11061,7 @@
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10733,6 +11085,7 @@
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10760,6 +11113,7 @@
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10783,6 +11137,7 @@
       </c>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10810,6 +11165,7 @@
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10833,6 +11189,7 @@
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10860,6 +11217,7 @@
         </is>
       </c>
       <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10887,6 +11245,7 @@
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10914,6 +11273,7 @@
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10941,6 +11301,7 @@
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10968,6 +11329,7 @@
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10995,6 +11357,7 @@
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -11018,6 +11381,7 @@
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -11041,6 +11405,7 @@
       </c>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -11064,6 +11429,7 @@
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -11091,6 +11457,7 @@
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -11118,6 +11485,7 @@
       </c>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -11141,6 +11509,7 @@
       </c>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -11164,6 +11533,7 @@
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -11187,6 +11557,7 @@
       </c>
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -11214,6 +11585,7 @@
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -11237,6 +11609,7 @@
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -11264,6 +11637,7 @@
       </c>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -11291,6 +11665,7 @@
       </c>
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -11314,6 +11689,7 @@
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -11341,6 +11717,7 @@
       </c>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -11368,6 +11745,7 @@
       </c>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -11395,6 +11773,7 @@
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -11422,6 +11801,7 @@
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -11449,6 +11829,7 @@
       </c>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -11472,6 +11853,7 @@
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -11499,6 +11881,7 @@
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11526,6 +11909,7 @@
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -11549,6 +11933,7 @@
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -11576,6 +11961,7 @@
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11603,6 +11989,7 @@
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -11630,6 +12017,7 @@
       </c>
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11653,6 +12041,7 @@
       </c>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -11676,6 +12065,7 @@
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -11703,6 +12093,7 @@
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -11730,6 +12121,7 @@
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -11757,6 +12149,7 @@
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -11784,6 +12177,7 @@
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11813,6 +12207,7 @@
       <c r="G391" t="inlineStr"/>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11840,6 +12235,7 @@
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11867,6 +12263,7 @@
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11894,6 +12291,7 @@
       </c>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11921,6 +12319,7 @@
       </c>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11948,6 +12347,7 @@
       </c>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11975,6 +12375,7 @@
       </c>
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -12002,6 +12403,7 @@
       </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -12029,6 +12431,7 @@
       </c>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -12056,6 +12459,7 @@
       </c>
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -12083,6 +12487,7 @@
       </c>
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -12110,6 +12515,7 @@
       </c>
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -12137,6 +12543,7 @@
       </c>
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -12164,6 +12571,7 @@
       </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -12191,6 +12599,7 @@
       </c>
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -12214,6 +12623,7 @@
       </c>
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -12247,6 +12657,7 @@
       </c>
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -12276,16 +12687,17 @@
       <c r="G408" t="inlineStr"/>
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Аллах Ахмедов Магомедович</t>
+          <t>Ахмед Ахмедов Ахмедович</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>А22-502</t>
+          <t>А00-123</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -12297,16 +12709,19 @@
       <c r="I409" t="n">
         <v>79191557535</v>
       </c>
+      <c r="J409" t="n">
+        <v>1214800918</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Аллах Ахмедов Магомедович</t>
+          <t>Барабан Съел Коня</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Внешний донор</t>
+          <t>А97-838</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -12315,10 +12730,35 @@
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
       <c r="H410" t="inlineStr"/>
-      <c r="I410" t="inlineStr">
-        <is>
-          <t>79191557535</t>
-        </is>
+      <c r="I410" t="n">
+        <v>79174248204</v>
+      </c>
+      <c r="J410" t="n">
+        <v>1412037731</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>С С С</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>А22-501</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="n">
+        <v>79631348777</v>
+      </c>
+      <c r="J411" t="n">
+        <v>873349124</v>
       </c>
     </row>
   </sheetData>

--- a/donors.xlsx
+++ b/donors.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="events" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="registrations" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,7 +525,6 @@
       <c r="I2" t="n">
         <v>79483957162</v>
       </c>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,12 +551,9 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>79720136845</v>
       </c>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -563,7 +561,6 @@
           <t xml:space="preserve"> Кузнецов Дмитрий Иванович  </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>2</v>
       </c>
@@ -583,11 +580,9 @@
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>79159208374</v>
       </c>
-      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -595,25 +590,20 @@
           <t xml:space="preserve"> Попова Ольга Владимировна  </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>2014-2019</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>79642871930</v>
       </c>
-      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -645,11 +635,9 @@
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>79307592618</v>
       </c>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -689,7 +677,6 @@
       <c r="I7" t="n">
         <v>79925463781</v>
       </c>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -729,7 +716,6 @@
       <c r="I8" t="n">
         <v>79836019254</v>
       </c>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -737,25 +723,20 @@
           <t xml:space="preserve"> Новикова Мария Дмитриевна  </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>79571328406</v>
       </c>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -782,7 +763,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>https://vk.com/alkalin3</t>
@@ -791,7 +771,6 @@
       <c r="I10" t="n">
         <v>79498205137</v>
       </c>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -823,11 +802,9 @@
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>79260734895</v>
       </c>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -840,24 +817,20 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>79174683529</v>
       </c>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -897,7 +870,6 @@
       <c r="I13" t="n">
         <v>79359042768</v>
       </c>
-      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -924,7 +896,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>https://vk.com/the_onlookeer</t>
@@ -933,7 +904,6 @@
       <c r="I14" t="n">
         <v>79812597043</v>
       </c>
-      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -973,7 +943,6 @@
       <c r="I15" t="n">
         <v>79627310984</v>
       </c>
-      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -986,24 +955,20 @@
           <t>А22-501</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>2016-2019</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>79940158326</v>
       </c>
-      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1043,7 +1008,6 @@
       <c r="I17" t="n">
         <v>79753864012</v>
       </c>
-      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1051,25 +1015,20 @@
           <t xml:space="preserve"> Гончаров Владислав Юрьевич  </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>2016-2019</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>79481026793</v>
       </c>
-      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1096,12 +1055,9 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>79295378460</v>
       </c>
-      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1109,25 +1065,20 @@
           <t xml:space="preserve"> Воробьёв Сергей Васильевич  </t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>2014-2019</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>79618490237</v>
       </c>
-      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1154,7 +1105,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>https://vk.com/kozer_og</t>
@@ -1163,7 +1113,6 @@
       <c r="I21" t="n">
         <v>79034726859</v>
       </c>
-      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1171,21 +1120,15 @@
           <t xml:space="preserve"> Тихонов Антон Владимирович  </t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>79567831402</v>
       </c>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1198,14 +1141,12 @@
           <t>С20-103</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>7</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>26.02.2024</t>
@@ -1219,7 +1160,6 @@
       <c r="I23" t="n">
         <v>79123456789</v>
       </c>
-      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1251,11 +1191,9 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>79987654321</v>
       </c>
-      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1263,25 +1201,20 @@
           <t xml:space="preserve"> Михайлова Алёна Сергеевна  </t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>2014-2019</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>79456789012</v>
       </c>
-      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1294,24 +1227,20 @@
           <t>сотрудник</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>7</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>79345678901</v>
       </c>
-      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1319,7 +1248,6 @@
           <t xml:space="preserve"> Дмитриева Софья Романовна  </t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
         <v>1</v>
       </c>
@@ -1339,11 +1267,9 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>79234567890</v>
       </c>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1356,24 +1282,20 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
         <v>6</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>2015-2019</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>79890123456</v>
       </c>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1381,21 +1303,15 @@
           <t xml:space="preserve"> Анисимова Виктория Евгеньевна  </t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>6</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>79789012345</v>
       </c>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1403,25 +1319,20 @@
           <t xml:space="preserve"> Баранов Иван Алексеевич  </t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>2015-2019</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>79678901234</v>
       </c>
-      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1429,25 +1340,20 @@
           <t xml:space="preserve"> Тарасова Арина Дмитриевна  </t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>2017-2019</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>79567890123</v>
       </c>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1487,7 +1393,6 @@
       <c r="I32" t="n">
         <v>79901234567</v>
       </c>
-      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1495,25 +1400,20 @@
           <t xml:space="preserve"> Савельева Ульяна Константиновна  </t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>6</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>2017-2019</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>79012345678</v>
       </c>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1545,11 +1445,9 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>79135792468</v>
       </c>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1562,14 +1460,12 @@
           <t>М22-208</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
         <v>6</v>
       </c>
       <c r="E35" t="n">
         <v>6</v>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>06.03.2023</t>
@@ -1583,7 +1479,6 @@
       <c r="I35" t="n">
         <v>79246813579</v>
       </c>
-      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1610,12 +1505,9 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>79357924680</v>
       </c>
-      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1647,11 +1539,9 @@
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>79468135792</v>
       </c>
-      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1691,7 +1581,6 @@
       <c r="I38" t="n">
         <v>79579246803</v>
       </c>
-      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1718,7 +1607,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>https://vk.com/@olyastel</t>
@@ -1727,7 +1615,6 @@
       <c r="I39" t="n">
         <v>79681357924</v>
       </c>
-      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1735,25 +1622,20 @@
           <t xml:space="preserve"> Никитин Алексей Сергеевич  </t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
         <v>5</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>2017-2019</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
         <v>79792468135</v>
       </c>
-      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1785,11 +1667,9 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>79803579246</v>
       </c>
-      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1821,11 +1701,9 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
         <v>79914680357</v>
       </c>
-      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1852,12 +1730,9 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
         <v>79025791368</v>
       </c>
-      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1884,7 +1759,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>https://vk.com/olya_kamaeva</t>
@@ -1893,7 +1767,6 @@
       <c r="I44" t="n">
         <v>79136802479</v>
       </c>
-      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1901,25 +1774,20 @@
           <t xml:space="preserve"> Осипова Диана Артёмовна  </t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
         <v>5</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>2016-2019</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>79247913580</v>
       </c>
-      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1946,7 +1814,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>https://vk.com/id208462862</t>
@@ -1955,7 +1822,6 @@
       <c r="I46" t="n">
         <v>79358024691</v>
       </c>
-      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1963,25 +1829,20 @@
           <t xml:space="preserve"> Андреева Кристина Вячеславовна  </t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
         <v>5</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>2015-2019</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
         <v>79469135802</v>
       </c>
-      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1989,25 +1850,20 @@
           <t xml:space="preserve"> Горбунов Руслан Сергеевич  </t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
         <v>5</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>2016-2019</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
         <v>79570246913</v>
       </c>
-      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2034,7 +1890,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>https://vk.com/r3m4k</t>
@@ -2043,7 +1898,6 @@
       <c r="I49" t="n">
         <v>79681357024</v>
       </c>
-      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2070,12 +1924,9 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
         <v>79792468135</v>
       </c>
-      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2083,21 +1934,15 @@
           <t xml:space="preserve"> Сорокина Валентина Максимовна  </t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
         <v>5</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>79803579246</v>
       </c>
-      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2105,21 +1950,15 @@
           <t xml:space="preserve"> Белов Александр Дмитриевич  </t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
         <v>5</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>79914680357</v>
       </c>
-      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2127,21 +1966,15 @@
           <t xml:space="preserve"> Крылова Елена Сергеевна  </t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
         <v>5</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>79025791368</v>
       </c>
-      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2149,25 +1982,20 @@
           <t xml:space="preserve"> Михайлов Артём Игоревич  </t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
         <v>5</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
       </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>2017-2019</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>79136802479</v>
       </c>
-      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2175,25 +2003,20 @@
           <t xml:space="preserve"> Фомина Дарья Павловна  </t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
         <v>5</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>2017-2019</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
         <v>79247913580</v>
       </c>
-      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2201,25 +2024,20 @@
           <t xml:space="preserve"> Яковлев Денис Владимирович  </t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
         <v>5</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>2017-2019</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>79358024691</v>
       </c>
-      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2227,25 +2045,20 @@
           <t xml:space="preserve"> Борисова Анна Александровна  </t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
         <v>5</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>2017-2019</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>79469135802</v>
       </c>
-      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2277,11 +2090,9 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
         <v>79570246913</v>
       </c>
-      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2321,7 +2132,6 @@
       <c r="I59" t="n">
         <v>79681357024</v>
       </c>
-      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2334,24 +2144,20 @@
           <t>С22-103</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
         <v>6</v>
       </c>
       <c r="E60" t="n">
         <v>6</v>
       </c>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
         <v>79792468135</v>
       </c>
-      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2391,7 +2197,6 @@
       <c r="I61" t="n">
         <v>79803579246</v>
       </c>
-      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2404,24 +2209,20 @@
           <t>А22-121</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
         <v>5</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>8.10.2024</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
         <v>79914680357</v>
       </c>
-      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2434,24 +2235,20 @@
           <t>С21-701</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
         <v>6</v>
       </c>
       <c r="E63" t="n">
         <v>6</v>
       </c>
-      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
         <v>79025791368</v>
       </c>
-      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2464,24 +2261,20 @@
           <t>С21-712</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
         <v>5</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
       </c>
-      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
         <v>79136802479</v>
       </c>
-      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2521,7 +2314,6 @@
       <c r="I65" t="n">
         <v>79247913580</v>
       </c>
-      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2561,7 +2353,6 @@
       <c r="I66" t="n">
         <v>79358024691</v>
       </c>
-      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2601,7 +2392,6 @@
       <c r="I67" t="n">
         <v>79469135802</v>
       </c>
-      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2641,7 +2431,6 @@
       <c r="I68" t="n">
         <v>79570246913</v>
       </c>
-      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2673,11 +2462,9 @@
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
         <v>79681357024</v>
       </c>
-      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2717,7 +2504,6 @@
       <c r="I70" t="n">
         <v>79792468135</v>
       </c>
-      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2749,11 +2535,9 @@
           <t>26.02.2024</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>79803579246</v>
       </c>
-      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2766,24 +2550,20 @@
           <t>Б21-102</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
       </c>
-      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
         <v>79914680357</v>
       </c>
-      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2796,24 +2576,20 @@
           <t>С22-101</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
         <v>5</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
       </c>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>79025791368</v>
       </c>
-      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2845,11 +2621,9 @@
           <t>11.5.2023</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
         <v>79136802479</v>
       </c>
-      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2862,24 +2636,20 @@
           <t>С22-103</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
         <v>4</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
       </c>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
         <v>79247913580</v>
       </c>
-      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2887,7 +2657,6 @@
           <t xml:space="preserve"> Жданов Артём Игоревич  </t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>2</v>
       </c>
@@ -2907,11 +2676,9 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
         <v>79358024691</v>
       </c>
-      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2951,7 +2718,6 @@
       <c r="I77" t="n">
         <v>79469135802</v>
       </c>
-      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2983,11 +2749,9 @@
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
         <v>79570246913</v>
       </c>
-      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3000,24 +2764,20 @@
           <t>Б21-103</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
       </c>
-      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>79681357024</v>
       </c>
-      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3044,7 +2804,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>https://vk.com/id747481779</t>
@@ -3053,7 +2812,6 @@
       <c r="I80" t="n">
         <v>79792468135</v>
       </c>
-      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3085,11 +2843,9 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
         <v>79803579246</v>
       </c>
-      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3129,7 +2885,6 @@
       <c r="I82" t="n">
         <v>79914680357</v>
       </c>
-      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3142,24 +2897,20 @@
           <t>Б21-205</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
         <v>4</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
       </c>
-      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
         <v>79025791368</v>
       </c>
-      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3199,7 +2950,6 @@
       <c r="I84" t="n">
         <v>79136802479</v>
       </c>
-      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3239,7 +2989,6 @@
       <c r="I85" t="n">
         <v>79247913580</v>
       </c>
-      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3271,11 +3020,9 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
         <v>79358024691</v>
       </c>
-      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3307,11 +3054,9 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
         <v>79469135802</v>
       </c>
-      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3351,7 +3096,6 @@
       <c r="I88" t="n">
         <v>79570246913</v>
       </c>
-      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3383,11 +3127,9 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
         <v>79681357024</v>
       </c>
-      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3419,11 +3161,9 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
         <v>79792468135</v>
       </c>
-      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3455,11 +3195,9 @@
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
         <v>79803579246</v>
       </c>
-      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3499,7 +3237,6 @@
       <c r="I92" t="n">
         <v>79914680357</v>
       </c>
-      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3531,11 +3268,9 @@
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
         <v>79025791368</v>
       </c>
-      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3575,7 +3310,6 @@
       <c r="I94" t="n">
         <v>79136802479</v>
       </c>
-      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3615,7 +3349,6 @@
       <c r="I95" t="n">
         <v>79247913580</v>
       </c>
-      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3623,7 +3356,6 @@
           <t xml:space="preserve"> Щербаков Владимир Игоревич  </t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
         <v>2</v>
       </c>
@@ -3638,12 +3370,9 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
         <v>79358024691</v>
       </c>
-      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3670,12 +3399,9 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
         <v>79469135802</v>
       </c>
-      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3715,7 +3441,6 @@
       <c r="I98" t="n">
         <v>79570246913</v>
       </c>
-      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3742,7 +3467,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>https://vk.com/awusuv13</t>
@@ -3751,7 +3475,6 @@
       <c r="I99" t="n">
         <v>79681357024</v>
       </c>
-      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3778,10 +3501,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3808,14 +3527,11 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>https://vk.com/lesya0403</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3823,7 +3539,6 @@
           <t xml:space="preserve"> Ларин Денис Сергеевич</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
         <v>2</v>
       </c>
@@ -3838,10 +3553,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3849,7 +3560,6 @@
           <t xml:space="preserve"> Широкова Валерия Дмитриевна</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
         <v>2</v>
       </c>
@@ -3864,10 +3574,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3894,10 +3600,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3924,14 +3626,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>https://vk.com/id571982479</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3958,14 +3657,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>https://vk.com/ttetrahedron</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3992,10 +3688,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4022,10 +3714,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4052,10 +3740,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4082,10 +3766,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4112,10 +3792,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4142,14 +3818,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>https://vk.com/danissimo2006</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4176,10 +3849,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4206,14 +3875,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>https://vk.com/fyrlucif</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4240,10 +3906,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4270,10 +3932,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4300,10 +3958,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4330,14 +3984,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>https://vk.com/iiozh</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4364,10 +4015,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4394,10 +4041,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4424,10 +4067,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4454,10 +4093,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4465,7 +4100,6 @@
           <t xml:space="preserve"> Фролова Алиса Андреевна</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
         <v>2</v>
       </c>
@@ -4480,14 +4114,11 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>https://vk.com/dafuq0</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4514,14 +4145,11 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>https://vk.com/kalivan_ibragimov</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4553,9 +4181,6 @@
           <t>8.10.2024</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4568,22 +4193,17 @@
           <t>С22-201</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
         <v>3</v>
       </c>
       <c r="E126" t="n">
         <v>3</v>
       </c>
-      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4615,9 +4235,6 @@
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4630,22 +4247,17 @@
           <t>Б21-203</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
         <v>3</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
       </c>
-      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4658,22 +4270,17 @@
           <t>М22-218</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
         <v>3</v>
       </c>
       <c r="E129" t="n">
         <v>3</v>
       </c>
-      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>26.02.2024</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4681,23 +4288,17 @@
           <t xml:space="preserve"> Суворов Алексей Дмитриевич</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
         <v>3</v>
       </c>
       <c r="E130" t="n">
         <v>3</v>
       </c>
-      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4710,22 +4311,17 @@
           <t>Б22-104</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
         <v>3</v>
       </c>
       <c r="E131" t="n">
         <v>3</v>
       </c>
-      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4733,23 +4329,17 @@
           <t xml:space="preserve"> Копылов Артур Сергеевич</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
         <v>3</v>
       </c>
       <c r="E132" t="n">
         <v>3</v>
       </c>
-      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4781,9 +4371,6 @@
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4796,22 +4383,17 @@
           <t>б22-104</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
         <v>3</v>
       </c>
       <c r="E134" t="n">
         <v>3</v>
       </c>
-      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4824,14 +4406,12 @@
           <t>Б21-107</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
         <v>4</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
       </c>
-      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>03.03.2025</t>
@@ -4842,8 +4422,6 @@
           <t>https://vk.com/cuprym</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4875,9 +4453,6 @@
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4909,9 +4484,6 @@
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4919,7 +4491,6 @@
           <t xml:space="preserve"> Лыков Артём Денисович</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
         <v>1</v>
       </c>
@@ -4939,9 +4510,6 @@
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4968,10 +4536,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5003,9 +4567,6 @@
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5037,9 +4598,6 @@
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5071,9 +4629,6 @@
           <t>11.5.2023</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5086,22 +4641,17 @@
           <t>С21-113</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
         <v>3</v>
       </c>
       <c r="E143" t="n">
         <v>3</v>
       </c>
-      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>11.5.2023</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5138,8 +4688,6 @@
           <t>https://vk.com/tsiklis</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5152,22 +4700,17 @@
           <t>М22-801</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
         <v>3</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
       </c>
-      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5194,10 +4737,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5210,22 +4749,17 @@
           <t>Б21-701</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
         <v>2</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
       </c>
-      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5257,9 +4791,6 @@
           <t>26.2.2024</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5267,23 +4798,17 @@
           <t xml:space="preserve"> Куприянова Ольга Андреевна</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
         <v>2</v>
       </c>
       <c r="E149" t="n">
         <v>2</v>
       </c>
-      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5320,8 +4845,6 @@
           <t>https://vk.com/balyasnikova21</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5334,22 +4857,17 @@
           <t>Б21-401</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
         <v>2</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
       </c>
-      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
           <t>26.02.2024</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5362,14 +4880,12 @@
           <t>Б22-702</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
         <v>2</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
       </c>
-      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
           <t>26.02.2024</t>
@@ -5380,8 +4896,6 @@
           <t>https://vk.com/kozabuerak</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5394,22 +4908,17 @@
           <t>Б22-544</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
         <v>2</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
       </c>
-      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5417,23 +4926,17 @@
           <t xml:space="preserve"> Силин Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
         <v>2</v>
       </c>
       <c r="E154" t="n">
         <v>2</v>
       </c>
-      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5465,9 +4968,6 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5499,9 +4999,6 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5514,22 +5011,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
         <v>2</v>
       </c>
       <c r="E157" t="n">
         <v>2</v>
       </c>
-      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5561,9 +5053,6 @@
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5571,23 +5060,17 @@
           <t xml:space="preserve"> Родионова Анастасия Игоревна</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
         <v>2</v>
       </c>
       <c r="E159" t="n">
         <v>2</v>
       </c>
-      <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5600,14 +5083,12 @@
           <t>Б22-105</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
         <v>3</v>
       </c>
       <c r="E160" t="n">
         <v>3</v>
       </c>
-      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
           <t>03.03.2025</t>
@@ -5618,8 +5099,6 @@
           <t>https://vk.com/id228412102</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5632,22 +5111,17 @@
           <t>Б20-221</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
         <v>3</v>
       </c>
       <c r="E161" t="n">
         <v>3</v>
       </c>
-      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5679,9 +5153,6 @@
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5689,23 +5160,17 @@
           <t xml:space="preserve"> Белова Мария Андреевна</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
         <v>2</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
       </c>
-      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5718,22 +5183,17 @@
           <t>Б20-802</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
         <v>2</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
       </c>
-      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5746,22 +5206,17 @@
           <t>Б20-101</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
         <v>2</v>
       </c>
       <c r="E165" t="n">
         <v>2</v>
       </c>
-      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5798,8 +5253,6 @@
           <t>https://vk.com/-</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5812,22 +5265,17 @@
           <t>А22-313</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
         <v>2</v>
       </c>
       <c r="E167" t="n">
         <v>2</v>
       </c>
-      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5835,7 +5283,6 @@
           <t xml:space="preserve"> Фадеев Артём Андреевич</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
         <v>1</v>
       </c>
@@ -5855,9 +5302,6 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5889,9 +5333,6 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5904,22 +5345,17 @@
           <t>Б22-702</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
         <v>2</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
       </c>
-      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5932,22 +5368,17 @@
           <t>Б21-601</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
         <v>3</v>
       </c>
       <c r="E171" t="n">
         <v>3</v>
       </c>
-      <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5984,8 +5415,6 @@
           <t>https://vk.com/psfvd</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5998,22 +5427,17 @@
           <t>С22-101</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
         <v>2</v>
       </c>
       <c r="E173" t="n">
         <v>2</v>
       </c>
-      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
           <t>6.3.2023</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6045,9 +5469,6 @@
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6079,9 +5500,6 @@
           <t>11.5.2023</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6118,8 +5536,6 @@
           <t>https://vk.com/main_wasp</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6151,9 +5567,6 @@
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6166,22 +5579,17 @@
           <t>б22-802</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
         <v>2</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
       </c>
-      <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6194,22 +5602,17 @@
           <t>М23-Ш02</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
         <v>2</v>
       </c>
       <c r="E179" t="n">
         <v>2</v>
       </c>
-      <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6241,9 +5644,6 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6256,22 +5656,17 @@
           <t>Б22-221</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
         <v>2</v>
       </c>
       <c r="E181" t="n">
         <v>2</v>
       </c>
-      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6303,9 +5698,6 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6342,8 +5734,6 @@
           <t>telegram - @SNRyzhov</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6375,9 +5765,6 @@
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6409,9 +5796,6 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6424,14 +5808,12 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
         <v>2</v>
       </c>
       <c r="E186" t="n">
         <v>2</v>
       </c>
-      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
           <t>07.03.2023</t>
@@ -6442,8 +5824,6 @@
           <t>https://vk.com/id186471535</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6475,9 +5855,6 @@
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6514,8 +5891,6 @@
           <t>https://vk.com/u_apparata_8</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6528,22 +5903,17 @@
           <t>С22-103</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
         <v>2</v>
       </c>
       <c r="E189" t="n">
         <v>2</v>
       </c>
-      <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6570,14 +5940,11 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
           <t>https://vk.com/egoryanpakistan</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6590,22 +5957,17 @@
           <t>С21-703</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
         <v>2</v>
       </c>
       <c r="E191" t="n">
         <v>2</v>
       </c>
-      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6618,22 +5980,17 @@
           <t>Б22-604</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
         <v>2</v>
       </c>
       <c r="E192" t="n">
         <v>2</v>
       </c>
-      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6646,22 +6003,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
         <v>2</v>
       </c>
       <c r="E193" t="n">
         <v>2</v>
       </c>
-      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6674,22 +6026,17 @@
           <t>Б21-525</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
         <v>2</v>
       </c>
       <c r="E194" t="n">
         <v>2</v>
       </c>
-      <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6702,14 +6049,12 @@
           <t>Б21-103</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
         <v>2</v>
       </c>
       <c r="E195" t="n">
         <v>2</v>
       </c>
-      <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
           <t>11.05.2023</t>
@@ -6720,8 +6065,6 @@
           <t>https://vk.com/artemyyu</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6729,7 +6072,6 @@
           <t xml:space="preserve"> Зимин Андрей Дмитриевич</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
         <v>1</v>
       </c>
@@ -6749,9 +6091,6 @@
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6759,7 +6098,6 @@
           <t xml:space="preserve"> Троицкая Анастасия Игоревна</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
         <v>1</v>
       </c>
@@ -6774,10 +6112,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6785,7 +6119,6 @@
           <t xml:space="preserve"> Шевченко Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
         <v>1</v>
       </c>
@@ -6800,10 +6133,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6830,10 +6159,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6841,7 +6166,6 @@
           <t xml:space="preserve"> Гуров Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
         <v>1</v>
       </c>
@@ -6856,10 +6180,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6867,7 +6187,6 @@
           <t xml:space="preserve"> Клюева Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
         <v>1</v>
       </c>
@@ -6882,10 +6201,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6893,7 +6208,6 @@
           <t xml:space="preserve"> Круглов Артём Дмитриевич</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
         <v>1</v>
       </c>
@@ -6908,10 +6222,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6938,10 +6248,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6968,10 +6274,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6998,14 +6300,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
           <t>https://vk.com/doshkoo</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7013,7 +6312,6 @@
           <t xml:space="preserve"> Анисимов Алексей Игоревич</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
         <v>1</v>
       </c>
@@ -7028,10 +6326,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7039,7 +6333,6 @@
           <t xml:space="preserve"> Громова Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
         <v>1</v>
       </c>
@@ -7054,10 +6347,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7084,10 +6373,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7114,14 +6399,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
           <t>https://vk.com/irinavoroztcova</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7148,14 +6430,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
           <t>https://vk.com/dimagavrilenko</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7182,14 +6461,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
           <t>https://vk.com/@id493963190</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7216,10 +6492,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7227,7 +6499,6 @@
           <t xml:space="preserve"> Сухарева Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
         <v>1</v>
       </c>
@@ -7242,10 +6513,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7253,7 +6520,6 @@
           <t xml:space="preserve"> Ершов Дмитрий Дмитриевич</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
         <v>1</v>
       </c>
@@ -7268,10 +6534,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7298,10 +6560,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7309,7 +6567,6 @@
           <t xml:space="preserve"> Шаров Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
         <v>1</v>
       </c>
@@ -7324,10 +6581,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7335,7 +6588,6 @@
           <t xml:space="preserve"> Кононова Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
         <v>1</v>
       </c>
@@ -7350,10 +6602,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7380,14 +6628,11 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
           <t>https://vk.com/dmitkate_17</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7414,14 +6659,11 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
           <t>https://vk.com/id361176914</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7429,7 +6671,6 @@
           <t xml:space="preserve"> Семёнов Артём Дмитриевич</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
         <v>1</v>
       </c>
@@ -7444,14 +6685,11 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
           <t>https://vk.com/id184204069</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7478,10 +6716,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7508,14 +6742,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>https://vk.com/savaevstratov</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7547,9 +6778,6 @@
           <t>26.2.2024</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7557,7 +6785,6 @@
           <t xml:space="preserve"> Трифонов Артём Игоревич</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
         <v>1</v>
       </c>
@@ -7572,10 +6799,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7602,14 +6825,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>https://vk.com/evgenchik312</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7617,7 +6837,6 @@
           <t xml:space="preserve"> Кочетков Дмитрий Дмитриевич</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
         <v>1</v>
       </c>
@@ -7632,10 +6851,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7662,14 +6877,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>https://vk.com/1616</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7677,7 +6889,6 @@
           <t xml:space="preserve"> Русанов Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
         <v>1</v>
       </c>
@@ -7692,10 +6903,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7722,10 +6929,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7752,14 +6955,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
           <t>https://vk.com/izuevmephi</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7786,14 +6986,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
           <t>https://vk.com/minozyt</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7801,7 +6998,6 @@
           <t xml:space="preserve"> Степанов Артём Дмитриевич</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
         <v>1</v>
       </c>
@@ -7816,10 +7012,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7846,10 +7038,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7857,7 +7045,6 @@
           <t xml:space="preserve"> Калинин Дмитрий Сергеевич</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
         <v>1</v>
       </c>
@@ -7872,10 +7059,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7902,10 +7085,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7913,7 +7092,6 @@
           <t xml:space="preserve"> Абрамов Артём Игоревич</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
         <v>1</v>
       </c>
@@ -7928,10 +7106,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7939,7 +7113,6 @@
           <t xml:space="preserve"> Родина Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
         <v>1</v>
       </c>
@@ -7954,10 +7127,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7965,7 +7134,6 @@
           <t xml:space="preserve"> Гаврилов Дмитрий Дмитриевич</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
         <v>1</v>
       </c>
@@ -7980,10 +7148,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7991,7 +7155,6 @@
           <t xml:space="preserve"> Логинова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
         <v>1</v>
       </c>
@@ -8006,10 +7169,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8036,14 +7195,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
           <t>https://vk.com/kaldun4ik</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8070,14 +7226,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr">
         <is>
           <t>https://vk.com/</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8104,10 +7257,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8134,14 +7283,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr">
         <is>
           <t>https://vk.com/fufindryk</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8168,10 +7314,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8179,7 +7321,6 @@
           <t xml:space="preserve"> Горюнова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
         <v>1</v>
       </c>
@@ -8194,10 +7335,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8224,14 +7361,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
           <t>https://vk.com/id467341057</t>
         </is>
       </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8258,10 +7392,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8288,10 +7418,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8299,7 +7425,6 @@
           <t xml:space="preserve"> Астафьева Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
         <v>1</v>
       </c>
@@ -8314,10 +7439,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8344,10 +7465,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8355,7 +7472,6 @@
           <t xml:space="preserve"> Соколова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr"/>
       <c r="C251" t="n">
         <v>1</v>
       </c>
@@ -8370,10 +7486,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8400,10 +7512,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8430,10 +7538,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8460,10 +7564,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8471,7 +7571,6 @@
           <t xml:space="preserve"> Маркина Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
       <c r="C255" t="n">
         <v>1</v>
       </c>
@@ -8486,10 +7585,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8516,10 +7611,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8527,7 +7618,6 @@
           <t xml:space="preserve"> Гришина Анна Игоревна</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr"/>
       <c r="C257" t="n">
         <v>1</v>
       </c>
@@ -8542,10 +7632,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8572,10 +7658,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8602,10 +7684,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8613,7 +7691,6 @@
           <t xml:space="preserve"> Власов Артём Игоревич</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr"/>
       <c r="C260" t="n">
         <v>1</v>
       </c>
@@ -8628,10 +7705,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8639,7 +7712,6 @@
           <t xml:space="preserve"> Данилова Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr"/>
       <c r="C261" t="n">
         <v>1</v>
       </c>
@@ -8654,10 +7726,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8684,14 +7752,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
           <t>https://vk.com/peskov_alexander</t>
         </is>
       </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8699,7 +7764,6 @@
           <t xml:space="preserve"> Ефимова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
         <v>1</v>
       </c>
@@ -8714,14 +7778,11 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
         <is>
           <t>https://vk.com/bruhpepe</t>
         </is>
       </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8729,7 +7790,6 @@
           <t xml:space="preserve"> Соловьёв Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
         <v>1</v>
       </c>
@@ -8744,10 +7804,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8774,10 +7830,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8804,10 +7856,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8834,14 +7882,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
         <is>
           <t>https://vk.com/daaaaniro</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8849,7 +7894,6 @@
           <t xml:space="preserve"> Жуков Артём Дмитриевич</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
         <v>1</v>
       </c>
@@ -8864,14 +7908,11 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
         <is>
           <t>https://m.vk.com/id355917265</t>
         </is>
       </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8898,10 +7939,6 @@
           <t>04.12.2023</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8909,7 +7946,6 @@
           <t xml:space="preserve"> Макаров Дмитрий Сергеевич</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr"/>
       <c r="C270" t="n">
         <v>1</v>
       </c>
@@ -8924,14 +7960,11 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr">
         <is>
           <t>https://vk.com/lich_tunon_in_hall</t>
         </is>
       </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8958,10 +7991,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8988,10 +8017,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8999,7 +8024,6 @@
           <t xml:space="preserve"> Воронова Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
         <v>1</v>
       </c>
@@ -9014,10 +8038,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9044,10 +8064,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9074,14 +8090,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr">
         <is>
           <t>https://vk.com/teterinigora</t>
         </is>
       </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9089,7 +8102,6 @@
           <t xml:space="preserve"> Новиков Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
         <v>1</v>
       </c>
@@ -9104,10 +8116,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9134,14 +8142,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr">
         <is>
           <t>https://vk.com/unitory</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9149,7 +8154,6 @@
           <t xml:space="preserve"> Кузьмин Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
         <v>1</v>
       </c>
@@ -9164,10 +8168,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9194,10 +8194,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9224,10 +8220,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9235,7 +8227,6 @@
           <t xml:space="preserve"> Исаева Анна Игоревна</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr"/>
       <c r="C281" t="n">
         <v>1</v>
       </c>
@@ -9250,10 +8241,6 @@
           <t>27.02.2024</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9280,14 +8267,11 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
         <is>
           <t>https://vk.com/zhyk.kalozhyk</t>
         </is>
       </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9295,7 +8279,6 @@
           <t xml:space="preserve"> Титова Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
         <v>1</v>
       </c>
@@ -9310,10 +8293,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9321,7 +8300,6 @@
           <t xml:space="preserve"> Коновалов Артём Игоревич</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
         <v>1</v>
       </c>
@@ -9336,10 +8314,6 @@
           <t>24.09.2024</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9366,14 +8340,11 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr">
         <is>
           <t>https://vk.com/ne_farida</t>
         </is>
       </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9400,10 +8371,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9430,10 +8397,6 @@
           <t>29.09.2023</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9460,10 +8423,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9490,10 +8449,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9506,22 +8461,17 @@
           <t>б22-544</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr"/>
       <c r="D290" t="n">
         <v>1</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
       </c>
-      <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9534,22 +8484,17 @@
           <t>Б21-211</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr"/>
       <c r="D291" t="n">
         <v>1</v>
       </c>
       <c r="E291" t="n">
         <v>1</v>
       </c>
-      <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9562,22 +8507,17 @@
           <t>М23-301</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr"/>
       <c r="D292" t="n">
         <v>1</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
       </c>
-      <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9585,23 +8525,17 @@
           <t xml:space="preserve"> Широкова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
       <c r="D293" t="n">
         <v>1</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
       </c>
-      <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
           <t>26.2.2024</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9609,23 +8543,17 @@
           <t xml:space="preserve"> Степанов Дмитрий Сергеевич</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr"/>
-      <c r="C294" t="inlineStr"/>
       <c r="D294" t="n">
         <v>1</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
       </c>
-      <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
           <t>26.02.2024</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9638,22 +8566,17 @@
           <t>С22-711</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr"/>
       <c r="D295" t="n">
         <v>1</v>
       </c>
       <c r="E295" t="n">
         <v>1</v>
       </c>
-      <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr">
         <is>
           <t>6.3.2023</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9666,22 +8589,17 @@
           <t>Б23-612</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr"/>
       <c r="D296" t="n">
         <v>1</v>
       </c>
       <c r="E296" t="n">
         <v>1</v>
       </c>
-      <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9694,22 +8612,17 @@
           <t>Б22-211</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr"/>
       <c r="D297" t="n">
         <v>1</v>
       </c>
       <c r="E297" t="n">
         <v>1</v>
       </c>
-      <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9722,22 +8635,17 @@
           <t>Б22-801</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
       <c r="D298" t="n">
         <v>1</v>
       </c>
       <c r="E298" t="n">
         <v>1</v>
       </c>
-      <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9750,22 +8658,17 @@
           <t>Б21-017</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr"/>
       <c r="D299" t="n">
         <v>1</v>
       </c>
       <c r="E299" t="n">
         <v>1</v>
       </c>
-      <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9773,23 +8676,17 @@
           <t xml:space="preserve"> Зорин Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr"/>
-      <c r="C300" t="inlineStr"/>
       <c r="D300" t="n">
         <v>1</v>
       </c>
       <c r="E300" t="n">
         <v>1</v>
       </c>
-      <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
         <is>
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9802,22 +8699,17 @@
           <t>Б22-803</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr"/>
       <c r="D301" t="n">
         <v>1</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
       </c>
-      <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9825,23 +8717,17 @@
           <t xml:space="preserve"> Киселёв Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr"/>
-      <c r="C302" t="inlineStr"/>
       <c r="D302" t="n">
         <v>1</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
       </c>
-      <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr">
         <is>
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9854,22 +8740,17 @@
           <t>Б22-802</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr"/>
       <c r="D303" t="n">
         <v>1</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
       </c>
-      <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9877,23 +8758,17 @@
           <t xml:space="preserve"> Горбачёв Артём Дмитриевич</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr"/>
-      <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
         <v>1</v>
       </c>
       <c r="E304" t="n">
         <v>1</v>
       </c>
-      <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr">
         <is>
           <t>16.04.2024</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr"/>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9901,23 +8776,17 @@
           <t xml:space="preserve"> Фролова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr"/>
-      <c r="C305" t="inlineStr"/>
       <c r="D305" t="n">
         <v>1</v>
       </c>
       <c r="E305" t="n">
         <v>1</v>
       </c>
-      <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9930,22 +8799,17 @@
           <t>Б22-505</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr"/>
       <c r="D306" t="n">
         <v>1</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
       </c>
-      <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr">
         <is>
           <t>6.3.2023</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9958,22 +8822,17 @@
           <t>Б23-504</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr"/>
       <c r="D307" t="n">
         <v>1</v>
       </c>
       <c r="E307" t="n">
         <v>1</v>
       </c>
-      <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr"/>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9981,15 +8840,12 @@
           <t xml:space="preserve"> Миронов Артём Игоревич</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr"/>
-      <c r="C308" t="inlineStr"/>
       <c r="D308" t="n">
         <v>1</v>
       </c>
       <c r="E308" t="n">
         <v>1</v>
       </c>
-      <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr">
         <is>
           <t>08.10.2024</t>
@@ -10000,8 +8856,6 @@
           <t>https://vk.com/gulluiza</t>
         </is>
       </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10009,23 +8863,17 @@
           <t xml:space="preserve"> Голубева Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr"/>
-      <c r="C309" t="inlineStr"/>
       <c r="D309" t="n">
         <v>1</v>
       </c>
       <c r="E309" t="n">
         <v>1</v>
       </c>
-      <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10038,22 +8886,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr"/>
       <c r="D310" t="n">
         <v>1</v>
       </c>
       <c r="E310" t="n">
         <v>1</v>
       </c>
-      <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr"/>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10061,23 +8904,17 @@
           <t xml:space="preserve"> Котова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
-      <c r="C311" t="inlineStr"/>
       <c r="D311" t="n">
         <v>1</v>
       </c>
       <c r="E311" t="n">
         <v>1</v>
       </c>
-      <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr">
         <is>
           <t>16.04.2024</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -10085,23 +8922,17 @@
           <t xml:space="preserve"> Суханов Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr"/>
-      <c r="C312" t="inlineStr"/>
       <c r="D312" t="n">
         <v>1</v>
       </c>
       <c r="E312" t="n">
         <v>1</v>
       </c>
-      <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr">
         <is>
           <t>26.02.2024</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10138,8 +8969,6 @@
           <t>https://vk.com/ilich_05</t>
         </is>
       </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10152,22 +8981,17 @@
           <t>Б20-525</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr"/>
       <c r="D314" t="n">
         <v>1</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
       </c>
-      <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10180,22 +9004,17 @@
           <t>Б23-711</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr"/>
       <c r="D315" t="n">
         <v>1</v>
       </c>
       <c r="E315" t="n">
         <v>1</v>
       </c>
-      <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr"/>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10203,23 +9022,17 @@
           <t xml:space="preserve"> Соколов Артём Дмитриевич</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr"/>
-      <c r="C316" t="inlineStr"/>
       <c r="D316" t="n">
         <v>1</v>
       </c>
       <c r="E316" t="n">
         <v>1</v>
       </c>
-      <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr"/>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -10232,14 +9045,12 @@
           <t>Б22-105</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
         <v>2</v>
       </c>
       <c r="E317" t="n">
         <v>2</v>
       </c>
-      <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr">
         <is>
           <t>03.03.2025</t>
@@ -10250,8 +9061,6 @@
           <t>https://vk.com/hi_vi_777</t>
         </is>
       </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10264,22 +9073,17 @@
           <t>Б22-105</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr"/>
       <c r="D318" t="n">
         <v>1</v>
       </c>
       <c r="E318" t="n">
         <v>1</v>
       </c>
-      <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -10287,23 +9091,17 @@
           <t xml:space="preserve"> Орлова Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr"/>
-      <c r="C319" t="inlineStr"/>
       <c r="D319" t="n">
         <v>1</v>
       </c>
       <c r="E319" t="n">
         <v>1</v>
       </c>
-      <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10311,23 +9109,17 @@
           <t xml:space="preserve"> Филиппов Артём Игоревич</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
-      <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
         <v>1</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
       </c>
-      <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr">
         <is>
           <t>11.5.2023</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10340,22 +9132,17 @@
           <t>Б22-702</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr"/>
       <c r="D321" t="n">
         <v>1</v>
       </c>
       <c r="E321" t="n">
         <v>1</v>
       </c>
-      <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10368,22 +9155,17 @@
           <t>Б20-601</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr"/>
       <c r="D322" t="n">
         <v>1</v>
       </c>
       <c r="E322" t="n">
         <v>1</v>
       </c>
-      <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10391,23 +9173,17 @@
           <t xml:space="preserve"> Воробьёва Анна Игоревна</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr"/>
-      <c r="C323" t="inlineStr"/>
       <c r="D323" t="n">
         <v>1</v>
       </c>
       <c r="E323" t="n">
         <v>1</v>
       </c>
-      <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10420,22 +9196,17 @@
           <t>Б22-712</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
       <c r="D324" t="n">
         <v>1</v>
       </c>
       <c r="E324" t="n">
         <v>1</v>
       </c>
-      <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10448,22 +9219,17 @@
           <t>С22-103</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr"/>
       <c r="D325" t="n">
         <v>1</v>
       </c>
       <c r="E325" t="n">
         <v>1</v>
       </c>
-      <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10471,23 +9237,17 @@
           <t xml:space="preserve"> Блинов Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr"/>
-      <c r="C326" t="inlineStr"/>
       <c r="D326" t="n">
         <v>1</v>
       </c>
       <c r="E326" t="n">
         <v>1</v>
       </c>
-      <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr">
         <is>
           <t>26.12.2024</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10495,23 +9255,17 @@
           <t xml:space="preserve"> Лебедева Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr"/>
-      <c r="C327" t="inlineStr"/>
       <c r="D327" t="n">
         <v>1</v>
       </c>
       <c r="E327" t="n">
         <v>1</v>
       </c>
-      <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr">
         <is>
           <t>16.04.2024</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10519,23 +9273,17 @@
           <t xml:space="preserve"> Морозов Артём Дмитриевич</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr"/>
-      <c r="C328" t="inlineStr"/>
       <c r="D328" t="n">
         <v>1</v>
       </c>
       <c r="E328" t="n">
         <v>1</v>
       </c>
-      <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10548,22 +9296,17 @@
           <t>С19-702</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
         <v>1</v>
       </c>
       <c r="E329" t="n">
         <v>1</v>
       </c>
-      <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10576,22 +9319,17 @@
           <t>Б22-702</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr"/>
       <c r="D330" t="n">
         <v>1</v>
       </c>
       <c r="E330" t="n">
         <v>1</v>
       </c>
-      <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10599,23 +9337,17 @@
           <t xml:space="preserve"> Новикова Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr"/>
-      <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
         <v>1</v>
       </c>
       <c r="E331" t="n">
         <v>1</v>
       </c>
-      <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -10623,23 +9355,17 @@
           <t xml:space="preserve"> Громов Артём Игоревич</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr"/>
-      <c r="C332" t="inlineStr"/>
       <c r="D332" t="n">
         <v>1</v>
       </c>
       <c r="E332" t="n">
         <v>1</v>
       </c>
-      <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10652,22 +9378,17 @@
           <t>С19-702</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr"/>
       <c r="D333" t="n">
         <v>1</v>
       </c>
       <c r="E333" t="n">
         <v>1</v>
       </c>
-      <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10680,22 +9401,17 @@
           <t>Б21-202</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr"/>
       <c r="D334" t="n">
         <v>1</v>
       </c>
       <c r="E334" t="n">
         <v>1</v>
       </c>
-      <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr"/>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10703,23 +9419,17 @@
           <t xml:space="preserve"> Михайлова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr"/>
-      <c r="C335" t="inlineStr"/>
       <c r="D335" t="n">
         <v>1</v>
       </c>
       <c r="E335" t="n">
         <v>1</v>
       </c>
-      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr"/>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -10727,23 +9437,17 @@
           <t xml:space="preserve"> Крылов Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr"/>
-      <c r="C336" t="inlineStr"/>
       <c r="D336" t="n">
         <v>1</v>
       </c>
       <c r="E336" t="n">
         <v>1</v>
       </c>
-      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr"/>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -10756,22 +9460,17 @@
           <t>М22-711</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr"/>
       <c r="D337" t="n">
         <v>1</v>
       </c>
       <c r="E337" t="n">
         <v>1</v>
       </c>
-      <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr"/>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -10779,23 +9478,17 @@
           <t xml:space="preserve"> Белов Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr"/>
-      <c r="C338" t="inlineStr"/>
       <c r="D338" t="n">
         <v>1</v>
       </c>
       <c r="E338" t="n">
         <v>1</v>
       </c>
-      <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -10803,23 +9496,17 @@
           <t xml:space="preserve"> Степанова Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr"/>
-      <c r="C339" t="inlineStr"/>
       <c r="D339" t="n">
         <v>1</v>
       </c>
       <c r="E339" t="n">
         <v>1</v>
       </c>
-      <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr"/>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -10832,22 +9519,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
       <c r="D340" t="n">
         <v>1</v>
       </c>
       <c r="E340" t="n">
         <v>1</v>
       </c>
-      <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -10860,22 +9542,17 @@
           <t>Б22-503</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr"/>
       <c r="D341" t="n">
         <v>1</v>
       </c>
       <c r="E341" t="n">
         <v>1</v>
       </c>
-      <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr"/>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10883,23 +9560,17 @@
           <t xml:space="preserve"> Данилов Дмитрий Сергеевич</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr"/>
-      <c r="C342" t="inlineStr"/>
       <c r="D342" t="n">
         <v>1</v>
       </c>
       <c r="E342" t="n">
         <v>1</v>
       </c>
-      <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr"/>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10912,22 +9583,17 @@
           <t>Б22-515</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr"/>
       <c r="D343" t="n">
         <v>1</v>
       </c>
       <c r="E343" t="n">
         <v>1</v>
       </c>
-      <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr">
         <is>
           <t>11.05.2023</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr"/>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10935,23 +9601,17 @@
           <t xml:space="preserve"> Ерёмин Артём Игоревич</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr"/>
-      <c r="C344" t="inlineStr"/>
       <c r="D344" t="n">
         <v>1</v>
       </c>
       <c r="E344" t="n">
         <v>1</v>
       </c>
-      <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr"/>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10978,10 +9638,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr"/>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10994,22 +9650,17 @@
           <t>С22-711</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr"/>
       <c r="D346" t="n">
         <v>1</v>
       </c>
       <c r="E346" t="n">
         <v>1</v>
       </c>
-      <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr"/>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -11022,22 +9673,17 @@
           <t>А22-623</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr"/>
       <c r="D347" t="n">
         <v>1</v>
       </c>
       <c r="E347" t="n">
         <v>1</v>
       </c>
-      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -11045,23 +9691,17 @@
           <t xml:space="preserve"> Жданов Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr"/>
-      <c r="C348" t="inlineStr"/>
       <c r="D348" t="n">
         <v>1</v>
       </c>
       <c r="E348" t="n">
         <v>1</v>
       </c>
-      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
           <t>16.04.2024</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr"/>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -11069,23 +9709,17 @@
           <t xml:space="preserve"> Волкова Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr"/>
-      <c r="C349" t="inlineStr"/>
       <c r="D349" t="n">
         <v>1</v>
       </c>
       <c r="E349" t="n">
         <v>1</v>
       </c>
-      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
           <t>16.04.2024</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr"/>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -11098,22 +9732,17 @@
           <t>С20-701</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr"/>
       <c r="D350" t="n">
         <v>1</v>
       </c>
       <c r="E350" t="n">
         <v>1</v>
       </c>
-      <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr"/>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -11121,23 +9750,17 @@
           <t xml:space="preserve"> Никитина Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr"/>
-      <c r="C351" t="inlineStr"/>
       <c r="D351" t="n">
         <v>1</v>
       </c>
       <c r="E351" t="n">
         <v>1</v>
       </c>
-      <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr"/>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -11150,22 +9773,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr"/>
       <c r="D352" t="n">
         <v>1</v>
       </c>
       <c r="E352" t="n">
         <v>1</v>
       </c>
-      <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr"/>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -11173,23 +9791,17 @@
           <t xml:space="preserve"> Семёнова Анна Игоревна</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
       <c r="D353" t="n">
         <v>1</v>
       </c>
       <c r="E353" t="n">
         <v>1</v>
       </c>
-      <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr"/>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -11197,15 +9809,12 @@
           <t xml:space="preserve"> Власов Дмитрий Сергеевич</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr"/>
-      <c r="C354" t="inlineStr"/>
       <c r="D354" t="n">
         <v>1</v>
       </c>
       <c r="E354" t="n">
         <v>1</v>
       </c>
-      <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr">
         <is>
           <t>08.10.2024</t>
@@ -11216,8 +9825,6 @@
           <t>https://vk.com/lee_mee7</t>
         </is>
       </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -11230,22 +9837,17 @@
           <t>Б21-701</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr"/>
       <c r="D355" t="n">
         <v>1</v>
       </c>
       <c r="E355" t="n">
         <v>1</v>
       </c>
-      <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr"/>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -11258,22 +9860,17 @@
           <t>Б21-703</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr"/>
       <c r="D356" t="n">
         <v>1</v>
       </c>
       <c r="E356" t="n">
         <v>1</v>
       </c>
-      <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr"/>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -11286,22 +9883,17 @@
           <t>Б22-902</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr"/>
       <c r="D357" t="n">
         <v>1</v>
       </c>
       <c r="E357" t="n">
         <v>1</v>
       </c>
-      <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr"/>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -11314,22 +9906,17 @@
           <t>Б20-202</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr"/>
       <c r="D358" t="n">
         <v>1</v>
       </c>
       <c r="E358" t="n">
         <v>1</v>
       </c>
-      <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr"/>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -11342,22 +9929,17 @@
           <t>Б22-701</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr"/>
       <c r="D359" t="n">
         <v>1</v>
       </c>
       <c r="E359" t="n">
         <v>1</v>
       </c>
-      <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr"/>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -11365,23 +9947,17 @@
           <t xml:space="preserve"> Соловьёв Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr"/>
-      <c r="C360" t="inlineStr"/>
       <c r="D360" t="n">
         <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>1</v>
       </c>
-      <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr"/>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -11389,23 +9965,17 @@
           <t xml:space="preserve"> Анисимова Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr"/>
-      <c r="C361" t="inlineStr"/>
       <c r="D361" t="n">
         <v>1</v>
       </c>
       <c r="E361" t="n">
         <v>1</v>
       </c>
-      <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -11413,23 +9983,17 @@
           <t xml:space="preserve"> Гущин Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr"/>
-      <c r="C362" t="inlineStr"/>
       <c r="D362" t="n">
         <v>1</v>
       </c>
       <c r="E362" t="n">
         <v>1</v>
       </c>
-      <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr"/>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -11442,22 +10006,17 @@
           <t>Б21-403</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr"/>
       <c r="D363" t="n">
         <v>1</v>
       </c>
       <c r="E363" t="n">
         <v>1</v>
       </c>
-      <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -11470,22 +10029,17 @@
           <t>Б22-803</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr"/>
       <c r="D364" t="n">
         <v>1</v>
       </c>
       <c r="E364" t="n">
         <v>1</v>
       </c>
-      <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
           <t>7.3.2023</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr"/>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -11493,23 +10047,17 @@
           <t xml:space="preserve"> Фомина Анна Игоревна</t>
         </is>
       </c>
-      <c r="B365" t="inlineStr"/>
-      <c r="C365" t="inlineStr"/>
       <c r="D365" t="n">
         <v>1</v>
       </c>
       <c r="E365" t="n">
         <v>1</v>
       </c>
-      <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr"/>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -11517,23 +10065,17 @@
           <t xml:space="preserve"> Комаров Дмитрий Сергеевич</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr"/>
-      <c r="C366" t="inlineStr"/>
       <c r="D366" t="n">
         <v>1</v>
       </c>
       <c r="E366" t="n">
         <v>1</v>
       </c>
-      <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr"/>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -11541,23 +10083,17 @@
           <t xml:space="preserve"> Савельева Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr"/>
-      <c r="C367" t="inlineStr"/>
       <c r="D367" t="n">
         <v>1</v>
       </c>
       <c r="E367" t="n">
         <v>1</v>
       </c>
-      <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr">
         <is>
           <t>16.04.2024</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr"/>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -11570,22 +10106,17 @@
           <t>Б22-104</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr"/>
       <c r="D368" t="n">
         <v>1</v>
       </c>
       <c r="E368" t="n">
         <v>1</v>
       </c>
-      <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -11593,23 +10124,17 @@
           <t xml:space="preserve"> Горшкова Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr"/>
-      <c r="C369" t="inlineStr"/>
       <c r="D369" t="n">
         <v>1</v>
       </c>
       <c r="E369" t="n">
         <v>1</v>
       </c>
-      <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr"/>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -11622,22 +10147,17 @@
           <t>С23-711</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr"/>
       <c r="D370" t="n">
         <v>1</v>
       </c>
       <c r="E370" t="n">
         <v>1</v>
       </c>
-      <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr"/>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -11650,22 +10170,17 @@
           <t>С21-712</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr"/>
       <c r="D371" t="n">
         <v>1</v>
       </c>
       <c r="E371" t="n">
         <v>1</v>
       </c>
-      <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -11673,23 +10188,17 @@
           <t xml:space="preserve"> Федосеев Артём Сергеевич</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
       <c r="D372" t="n">
         <v>1</v>
       </c>
       <c r="E372" t="n">
         <v>1</v>
       </c>
-      <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -11702,22 +10211,17 @@
           <t>Б23-612</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr"/>
       <c r="D373" t="n">
         <v>1</v>
       </c>
       <c r="E373" t="n">
         <v>1</v>
       </c>
-      <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -11730,22 +10234,17 @@
           <t>Б22-211</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr"/>
       <c r="D374" t="n">
         <v>1</v>
       </c>
       <c r="E374" t="n">
         <v>1</v>
       </c>
-      <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -11758,22 +10257,17 @@
           <t>Б23-702</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr"/>
       <c r="D375" t="n">
         <v>1</v>
       </c>
       <c r="E375" t="n">
         <v>1</v>
       </c>
-      <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -11786,22 +10280,17 @@
           <t>С22-712</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr"/>
       <c r="D376" t="n">
         <v>1</v>
       </c>
       <c r="E376" t="n">
         <v>1</v>
       </c>
-      <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr">
         <is>
           <t>6.3.2023</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr"/>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -11814,22 +10303,17 @@
           <t>С22-103</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr"/>
       <c r="D377" t="n">
         <v>1</v>
       </c>
       <c r="E377" t="n">
         <v>1</v>
       </c>
-      <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -11837,23 +10321,17 @@
           <t xml:space="preserve"> Маслов Дмитрий Сергеевич</t>
         </is>
       </c>
-      <c r="B378" t="inlineStr"/>
-      <c r="C378" t="inlineStr"/>
       <c r="D378" t="n">
         <v>1</v>
       </c>
       <c r="E378" t="n">
         <v>1</v>
       </c>
-      <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr">
         <is>
           <t>11.5.2023</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr"/>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -11866,22 +10344,17 @@
           <t>Б21-105</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr"/>
       <c r="D379" t="n">
         <v>1</v>
       </c>
       <c r="E379" t="n">
         <v>1</v>
       </c>
-      <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11894,22 +10367,17 @@
           <t>Б21-413</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr"/>
       <c r="D380" t="n">
         <v>1</v>
       </c>
       <c r="E380" t="n">
         <v>1</v>
       </c>
-      <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr"/>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -11917,23 +10385,17 @@
           <t xml:space="preserve"> Зотова Дарья Сергеевна</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr"/>
-      <c r="C381" t="inlineStr"/>
       <c r="D381" t="n">
         <v>1</v>
       </c>
       <c r="E381" t="n">
         <v>1</v>
       </c>
-      <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr">
         <is>
           <t>16.04.2024</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -11946,22 +10408,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr"/>
       <c r="D382" t="n">
         <v>1</v>
       </c>
       <c r="E382" t="n">
         <v>1</v>
       </c>
-      <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr">
         <is>
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr"/>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11974,22 +10431,17 @@
           <t>С21-712</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr"/>
       <c r="D383" t="n">
         <v>1</v>
       </c>
       <c r="E383" t="n">
         <v>1</v>
       </c>
-      <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr">
         <is>
           <t>06.03.2023</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr"/>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -12002,22 +10454,17 @@
           <t>С22-101</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr"/>
       <c r="D384" t="n">
         <v>1</v>
       </c>
       <c r="E384" t="n">
         <v>1</v>
       </c>
-      <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr">
         <is>
           <t>07.03.2023</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr"/>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -12025,23 +10472,17 @@
           <t xml:space="preserve"> Гаврилова Екатерина Андреевна</t>
         </is>
       </c>
-      <c r="B385" t="inlineStr"/>
-      <c r="C385" t="inlineStr"/>
       <c r="D385" t="n">
         <v>1</v>
       </c>
       <c r="E385" t="n">
         <v>1</v>
       </c>
-      <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr">
         <is>
           <t>08.10.2024</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr"/>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -12049,23 +10490,17 @@
           <t xml:space="preserve"> Анисимов Дмитрий Игоревич</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr"/>
-      <c r="C386" t="inlineStr"/>
       <c r="D386" t="n">
         <v>1</v>
       </c>
       <c r="E386" t="n">
         <v>1</v>
       </c>
-      <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -12078,22 +10513,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr"/>
       <c r="D387" t="n">
         <v>1</v>
       </c>
       <c r="E387" t="n">
         <v>1</v>
       </c>
-      <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr"/>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -12106,22 +10536,17 @@
           <t>Б22-525</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr"/>
       <c r="D388" t="n">
         <v>1</v>
       </c>
       <c r="E388" t="n">
         <v>1</v>
       </c>
-      <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr"/>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -12134,22 +10559,17 @@
           <t>М23-701</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr"/>
       <c r="D389" t="n">
         <v>1</v>
       </c>
       <c r="E389" t="n">
         <v>1</v>
       </c>
-      <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -12162,22 +10582,17 @@
           <t>С24-712</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr"/>
       <c r="D390" t="n">
         <v>1</v>
       </c>
       <c r="E390" t="n">
         <v>1</v>
       </c>
-      <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr"/>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -12204,10 +10619,6 @@
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="G391" t="inlineStr"/>
-      <c r="H391" t="inlineStr"/>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -12220,22 +10631,17 @@
           <t>Б24-901</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr"/>
       <c r="D392" t="n">
         <v>1</v>
       </c>
       <c r="E392" t="n">
         <v>1</v>
       </c>
-      <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr"/>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -12248,22 +10654,17 @@
           <t>Б24-711</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr"/>
       <c r="D393" t="n">
         <v>1</v>
       </c>
       <c r="E393" t="n">
         <v>1</v>
       </c>
-      <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr"/>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -12276,22 +10677,17 @@
           <t>Б23-515</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr"/>
       <c r="D394" t="n">
         <v>1</v>
       </c>
       <c r="E394" t="n">
         <v>1</v>
       </c>
-      <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -12304,22 +10700,17 @@
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr"/>
       <c r="D395" t="n">
         <v>1</v>
       </c>
       <c r="E395" t="n">
         <v>1</v>
       </c>
-      <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -12332,22 +10723,17 @@
           <t>А22-623</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr"/>
       <c r="D396" t="n">
         <v>1</v>
       </c>
       <c r="E396" t="n">
         <v>1</v>
       </c>
-      <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr"/>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -12360,22 +10746,17 @@
           <t>Б24-302</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr"/>
       <c r="D397" t="n">
         <v>1</v>
       </c>
       <c r="E397" t="n">
         <v>1</v>
       </c>
-      <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -12388,22 +10769,17 @@
           <t>Б23-211</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr"/>
       <c r="D398" t="n">
         <v>1</v>
       </c>
       <c r="E398" t="n">
         <v>1</v>
       </c>
-      <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -12416,22 +10792,17 @@
           <t>Б24-711</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
       <c r="D399" t="n">
         <v>1</v>
       </c>
       <c r="E399" t="n">
         <v>1</v>
       </c>
-      <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr"/>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -12444,22 +10815,17 @@
           <t>Б24-207</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr"/>
       <c r="D400" t="n">
         <v>1</v>
       </c>
       <c r="E400" t="n">
         <v>1</v>
       </c>
-      <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr"/>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -12472,22 +10838,17 @@
           <t>С24-712</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr"/>
       <c r="D401" t="n">
         <v>1</v>
       </c>
       <c r="E401" t="n">
         <v>1</v>
       </c>
-      <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr"/>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -12500,22 +10861,17 @@
           <t>С24-712</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr"/>
       <c r="D402" t="n">
         <v>1</v>
       </c>
       <c r="E402" t="n">
         <v>1</v>
       </c>
-      <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr"/>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -12528,22 +10884,17 @@
           <t>С22-711</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr"/>
       <c r="D403" t="n">
         <v>1</v>
       </c>
       <c r="E403" t="n">
         <v>1</v>
       </c>
-      <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr"/>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -12556,22 +10907,17 @@
           <t>Б24-403</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
       <c r="D404" t="n">
         <v>1</v>
       </c>
       <c r="E404" t="n">
         <v>1</v>
       </c>
-      <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr"/>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -12584,22 +10930,17 @@
           <t>М24-203</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr"/>
       <c r="D405" t="n">
         <v>1</v>
       </c>
       <c r="E405" t="n">
         <v>1</v>
       </c>
-      <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr"/>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -12607,23 +10948,17 @@
           <t xml:space="preserve"> Ибрагимов Рашид Омарович</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr"/>
-      <c r="C406" t="inlineStr"/>
       <c r="D406" t="n">
         <v>1</v>
       </c>
       <c r="E406" t="n">
         <v>1</v>
       </c>
-      <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr">
         <is>
           <t>03.03.2025</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr"/>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -12655,9 +10990,6 @@
           <t>30.11.2023</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -12684,10 +11016,6 @@
           <t>24.02.2025</t>
         </is>
       </c>
-      <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr"/>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -12700,12 +11028,6 @@
           <t>А00-123</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr"/>
       <c r="I409" t="n">
         <v>79191557535</v>
       </c>
@@ -12724,12 +11046,6 @@
           <t>А97-838</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr"/>
       <c r="I410" t="n">
         <v>79174248204</v>
       </c>
@@ -12748,17 +11064,169 @@
           <t>А22-501</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr"/>
       <c r="I411" t="n">
         <v>79631348777</v>
       </c>
       <c r="J411" t="n">
         <v>873349124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reg_link_external</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Центр крови им. О.К. Гаврилова</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://it.mephi.ru/web/guest/den-donora</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Центр крови ФМБА</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://it.mephi.ru/web/guest/den-donora-2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>telegram_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prichina_neyavki</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>873349124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>С С С</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
       </c>
     </row>
   </sheetData>
